--- a/biology/Zoologie/Dègue_de_Bridges/Dègue_de_Bridges.xlsx
+++ b/biology/Zoologie/Dègue_de_Bridges/Dègue_de_Bridges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A8gue_de_Bridges</t>
+          <t>Dègue_de_Bridges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Octodon bridgesi
-Le Dègue de Bridges (Octodon bridgesi) est une espèce de rongeurs de la famille des Octodontidae. Il se répartit en Argentine et au Chili, le plus souvent au Nord du Chili[1]. L'espèce a été nommée d'après Thomas Bridges, un botaniste britannique qui a transmis des individus au British Museum pour identification[2].
+Le Dègue de Bridges (Octodon bridgesi) est une espèce de rongeurs de la famille des Octodontidae. Il se répartit en Argentine et au Chili, le plus souvent au Nord du Chili. L'espèce a été nommée d'après Thomas Bridges, un botaniste britannique qui a transmis des individus au British Museum pour identification.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A8gue_de_Bridges</t>
+          <t>Dègue_de_Bridges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'il soit très proche du Dègue du Chili, le Dègue de Bridges est nocturne[3].
-Le Dègue de Bridges présente une indentation profonde des molaires[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il soit très proche du Dègue du Chili, le Dègue de Bridges est nocturne.
+Le Dègue de Bridges présente une indentation profonde des molaires.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A8gue_de_Bridges</t>
+          <t>Dègue_de_Bridges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dègue de Bridges est un habitant des zones rocheuses et forestières[4] ainsi que sur certaines terres agricoles ouvertes[1]. La déforestation est une cause probable de déclin de l'espèce[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dègue de Bridges est un habitant des zones rocheuses et forestières ainsi que sur certaines terres agricoles ouvertes. La déforestation est une cause probable de déclin de l'espèce.
 </t>
         </is>
       </c>
